--- a/execl_directory/output_part_1.xlsx
+++ b/execl_directory/output_part_1.xlsx
@@ -446,2156 +446,2158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7456432432850504972</t>
+          <t>https://www.douyin.com/video/7262685842890607928</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f033932c923d47a2a8faacd75c9c3ec5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=u8IOYKNdIkqKs%2BqS8Dh4rZtJ4O8%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o8EKIBAn9P4yAAnk8ePybfIha3LApDZgNQjlBl~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2F8iFG1szNVzNPzoJSZ8koVY3sog%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>9.8万</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>我就靠这四个内容，做了200亿播放量！#认知 #短视频 #商业</t>
+          <t>一代宗师，令人敬仰，值得每个国人了解 #弘一法师#李叔同#人生#送别#萧大业</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7456126646567931199</t>
+          <t>https://www.douyin.com/video/7179208768163548468</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3370199c79f742fea333f46476d21c43~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1ZBdiXNUm7mcOOEdb5lPqH0cTa0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQOoNIOQnE0xaBrEgDbFAtCemepmrjAABDu9Lh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=YHMQa66SpzIUiF5QGvYgGFLl4dc%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>29.5万</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>什么改变命运？努力勤奋还是读书？#认知</t>
+          <t>一个人人品好不好取决于他会不会感恩，会不会去尊重比自己社会地位低的人</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7456111096819174668</t>
+          <t>https://www.douyin.com/video/7181428051052416271</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d4fcb8dfd7c248d58b7b721a7e3a51b4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=NNbhz52hEiILcdsBMPZp6eXJtyY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYe7tDzjqA7WAyCDDWhYe9jBNOpbQcDiA2GgIn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WgIHmlC%2BP3H%2BjpfALacINL1yPyY%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>4.0万</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>为什么那么多人喜欢董宇辉？#董宇辉 #认知 #竞争</t>
+          <t>其实人们讨厌的不是漂亮的PPT，而是那些务虚的风气#刘强东#京东#PPT#务虚#萧大业</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7456068917845331263</t>
+          <t>https://www.douyin.com/video/7456348898571980090</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a354863ae1f4482299bced3d96d524c5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=u9KPerdiKsRnz2uYQpnUEzMTzFw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/o8eJIoLdAl8P6eW0JAGAQv9v7bOgiEDBAIIieb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wWMnkcdGoR0%2FGlxfSidEX7lJCE0%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025年真的值得期待，我们一定会越来越好！#2025 #认知 #商业</t>
+          <t>你可能不知道他，但他真的不该被遗忘…#梁诚#民国#庚子赔款#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7455719623112068390</t>
+          <t>https://www.douyin.com/video/7456048685554617657</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e77aaff927e34958ba436d483abdffca~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Lrtr6OBsGQKWsxRkc8eVkb5MXRU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/ogReDfzXBEw8Qbax9COgFCtyIf7TAZEGTJAaJ0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Jxwkt2SbYSqbmseA1B3RgkgPCs0%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2446</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>人生要幸福美满，处理好这四种关系！#人生</t>
+          <t>看完你真的会清醒很多，明白很多#人生 #萧大业 #商业#财经#成长</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7455670492326907173</t>
+          <t>https://www.douyin.com/video/7455651217604218169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/49910a48ba604ef5ac18a33ec82f8e3d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=etKsSzTC2lXggv2qFKPM9zdVByw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oQ3f9A0A9IlA1epfk1EBTgDnPJQFEEi8Cwbsyd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=u6LgONvTc%2FcQsJRQHjtkDvW7aUw%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3931</t>
+          <t>473</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>为什么美业现在成交那么难？#美业 #认知 #商业</t>
+          <t>听他两句话，足以学会做人做事 都说富不过三代，但他却用一千多封书信，让曾家10代出了200个人才，无一败家子。 #曾国藩#逆袭#教育 #萧大业 #商业</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7455585010830085427</t>
+          <t>https://www.douyin.com/video/7455242694286265660</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/983b5aa0d900410d9604fa0e80ffb8a6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nGQ%2B8UMwMB7hFX4Nhb%2BHGU0D6dg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/o4lfVOABfAE6ASDWB9b2fRIgnF7YK79Av8EEJ1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4gVKGO4U2zQKBafro5Db7GHwLTs%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>易烊千玺凭什么可以成为顶流？#易烊千玺 #认知</t>
+          <t>从清华理工男到“音乐诗人” 读书不是为了某一刻熠熠生辉，而是为了人生的每个时刻，都有自己的底气。#李健#清华#读书#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7455289240906157366</t>
+          <t>https://www.douyin.com/video/7454913576776535355</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/49fa0f15a1a54b7c9ee326abd44b8f67~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uIGyPel3j%2BqkB%2Bpe8mpL%2FRtbEJY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o8nEGlAhEBLuseL1PTiJwXIieA85Bs6fAZCz9p~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HHH4cMf88jFQeAOBgGWUMUdSLNs%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025年大变天，新的经济拐点到来！#认知 #财富</t>
+          <t>2025年开始了，方向在哪里 #萧大业 #商业#财经#2025#就业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7455137270014790949</t>
+          <t>https://www.douyin.com/video/7454541959928106297</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8dc375d80b2e4a46a774cb2cedea8935~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=e602G7G83IoIoNKTG%2FAnMUjUvJ8%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/owoIwi2B9yFEnA2fzgicxengFGiBACi1e6gE4n~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zY1z419GVjcVhSYfJR6Jc5vOj90%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>普通人逆袭的机会依旧是自媒体#认知 #商业</t>
+          <t>2024年最后一天盘点，讲二个本年度我印象深刻故事…#长沙#醴陵#珍酒#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7454972144838004009</t>
+          <t>https://www.douyin.com/video/7454170137978031419</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8d997a02e0084b11a22dc6337d0d5b57~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ORIIxEfq%2FlSX%2BvEjBw3hCslE2pQ%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oEViAXIr1kApHiMhBE3VaRVEvt9bKTLBvyZPi~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VHekARfgYfGrPbjTs80VSK6wnwc%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>卷娃不如卷自己，孩子大概率是啃老的！#认知</t>
+          <t>生活里的风，从春刮到冬，大风难预料，小风天天有。但如果心如巨石，则八风不动…#莫言#诺贝尔奖#书#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7454928260107881740</t>
+          <t>https://www.douyin.com/video/7453800517337156923</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e14d5042b60a4e96b2b1859bb583bf82~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6%2FcaC5mvIFEAJssNFVRjiHTpwjg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oouuBfwlAiqeICODoCzwiCnxETeJAlVCpEQsMU~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FX6dLJCv%2Fjmg1iyw3DTAKfT90QI%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.8万</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025年将迎来经济的春天#认知</t>
+          <t>他写了3900多个数学公式和定理，但搞不清怎么去证明。数学大咖们在他死后花了100多年不断地证明这哥们写的公式居然都是正确的…#数学#拉马努金#大业珍言#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7454240705196707098</t>
+          <t>https://www.douyin.com/video/7453391488202902844</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f8b14375c8c446f6bc73376a67bf2480~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yTHGCoUnPml7HfPYRgSKQVCwrL0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oMKIwkbEmSixEsnmBF8kAHEkvDeCfGAN9BCPte~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tCjDgP6WNX2Axa1O9v0abZmDkF0%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>错误的自我介绍，只会错过你的机遇！#表达</t>
+          <t>元芳，你怎么看？ #赵薇#电影明星#爆雷#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7454239865744411955</t>
+          <t>https://www.douyin.com/video/7453026578348461369</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/c67b9cac7b564cd08ba81a46fc25b045~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=bRFSLsFacZE0Qb0vnkHHLOz7VRI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o8EA4fncUwQ9D8aQCiyEATCeeEbFIsMFnFgWzz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hGPzoHStYE5ajilj2iiEO1vxE%2F4%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5769</t>
+          <t>2384</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>男人是没有真爱的，不要纠结他爱不爱你！#认知 #爱情</t>
+          <t>人生哪能多如意，无常才是生活常态，得到从来都是侥幸，唯有失去才是人生。既然无处可逃，不如喜悦；既然没有净土，不如净心；既然没能如愿，不如释怀。#人生 #萧大业 #商业 #成长 #管理</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7454208269880495369</t>
+          <t>https://www.douyin.com/video/7452686256552611113</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/389f954e5b3f4401a36117af651771df~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uPIEMVqgSCMh0%2Bf6Fp5nDAjvw5Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/59ba9370630e4582b5827843138bf1bf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IfuNj1gBRWIWpH5nyHeECihVu3U%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025年楼市会不会回暖？房子现在可以买吗？#房地产 #认知 #商业</t>
+          <t>徐娇事件聊公德与私德 道德的来源于权利，私德来自于私权利，而公德是来源于公共权利，公德和私德的边界一定要搞清楚。 #公德 #私德 #萧大业 #商业 #徐娇</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453848365885869366</t>
+          <t>https://www.douyin.com/video/7452271901054881083</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/955514833aeb477a9750ea92dfd65e65~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=mT%2BsOITKrvhZYdGSfHuHUYZ4DZQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oIfr981znEeYAcE5yCaFvVlEIYDBC2AdxwfKd1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Wxfa3T%2Bscdn8hi3ww4bHB1QAOFQ%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>中国男性比女性多3000万，为什么剩女越来越多呢？#认知</t>
+          <t>黑咪尽力了 最初的朋友，最好的告别#黑咪#蔡崇达#朋友#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453107116589567243</t>
+          <t>https://www.douyin.com/video/7451942226848009531</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e9a93aad0c8e4e7ca9d4307afa27986f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dyOY99OSnHp12%2Bz9pE%2FYd%2Bud8Mw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oM4L8BCEIb78Zsgr0eKOqQTsOgeneGuq1CIgAJ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=bnpXQIOPbKaolOcid8eHCQ587%2F4%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>普通人可以在大A拿到财富吗？#趋势 #财富</t>
+          <t>人不是有了方向才能全力以赴，而是全力以赴才会有方向 #人生 #就业#失业#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453106086896323852</t>
+          <t>https://www.douyin.com/video/7451180892875148544</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cf8d41833a6c4f509e4bdace4a4be2eb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=9Sn9PrbWExOMmeP1dYsLFUH7vQU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/69629847e3b043a88dcfd66e1ad6ead6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lIswGdRWEdBXZxxrkVlz5Fk75Kg%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>2.1万</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>这辈子你学会了营销，你想不赚钱都难！#营销</t>
+          <t>有情有义，成就人生大女主#萧大业 #商业 #企业家 #魏雪 #TCL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453106644726189350</t>
+          <t>https://www.douyin.com/video/7450655697987013945</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3738302ddb364a9194e7c1fd1ddb0efe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Vp0HBIjAl84vEyImVGJVJQRdXhI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/okEtLS9AIEAffQ7MCnNwAw6XeCFv6FZDg4Mkq2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FvIryYHyJQU2OCKktg8iFKby6nM%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3191</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>李子柒高调复出，为什么依旧是顶流？#认知 #商业</t>
+          <t>今天是冬至，这是一个非常不一般的冬至，遇到他就是你的幸运 #冬至#二十四节气#萧大业#传统文化#商业</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453104548350086426</t>
+          <t>https://www.douyin.com/video/7450475931879181626</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9c06abe98d624a2b88753765af2415ee~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=0%2BJjOg3vH%2F49kiupA3Z4GosUr5s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oICF9LDaZ9WfgSsalOqRemiEBflFEAnIEIwAGO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yl6UVU2pkCdM1eIG4lLJUfWzQG0%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>中国新能源产业为什么发展那么快？#新能源 #认知</t>
+          <t>三年半前亮仔攒了一年的钱坐飞机到杭州来看我，今天，他又骑着马儿又来长沙支持我，他想我了… #草原#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7453033982263938330</t>
+          <t>https://www.douyin.com/video/7450048425845902649</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/572ccddd5cea426188b48bc65330960c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=95Jcm%2B87lAgVs%2FvSN6DztPMVT%2Fo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oUmGEeyp8BA54GZ9ifi4E9nBBA7wWCCYIjf7ji~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=x0cas2mKJqyM2K4mQCy9ccEKtpg%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>单亲妈妈能不能把孩子带好呢？#认知 #人生</t>
+          <t>极越汽车雪崩的原因很多，可能这也是一个吧… #极越#新能源汽车#管理#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7452722272915262732</t>
+          <t>https://www.douyin.com/video/7448963774876273939</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7c0584f59b04441bb385f5ce850b675b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=phItTZminKNAWugFq3O5qG%2ByKNA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/de29fe479b7f4870b6de2c521b503f0d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=mV%2FoiXvJ83V3PUKFqp9U1l4%2Bt9s%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>第五次财富浪潮来临，你能赶上这趟车吗？#趋势 #财富 #认知</t>
+          <t>打胜仗靠什么 数据的积累、数据的挖掘，分析、归纳、整理，是一支优秀团队所必须俱备的基本素养，没有它，将军也永远是匹夫之勇 #数据 #打仗 #萧大业 #管理 #商业</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7452690537166966035</t>
+          <t>https://www.douyin.com/video/7448587897609014537</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a19be4fc0fc049978e685fcf1e06bd7b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=8WnqifZEw1nLHGmbEKvrWAsLBE0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2a7fbac34a844b559d16eea0c862faf1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=m%2B0Q7YjemxU56TCj%2BRtVWX%2BYds8%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>没有孩子,晚年会可怜吗?#认知 #人生</t>
+          <t>我的路，痛并快乐着 过去的1700天里，我在互联网上留下了340万字，别人休闲度假，喝酒聚餐我都在写文稿拍视频，经常独自忙到深夜… #萧大业 #年度演讲 #人生 #财经 #商业</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7452352342176959753</t>
+          <t>https://www.douyin.com/video/7448244050299309362</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/04ed7f08e5e0467393bd03998a42483b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=TJ2iZHZcgJ11V%2B8u91FQPku6oS0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d133728a1cf3458f839e4b24c8ecec9f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=NWfsA7b1KvDY%2Bwd7A5zGdKwI%2Bbc%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>东升西降是必然的趋势！#趋势 #中国</t>
+          <t>霉霉给员工发了14亿元人民币年终奖 霉霉的成功不仅仅是商业上的胜利，更是因为她始终关心和支持着每一个为之付出的人，这样的品质让人敬佩。 #霉霉 #泰勒斯威夫特 #萧大业 #演唱会 #商业</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7452326753093258534</t>
+          <t>https://www.douyin.com/video/7447526782594518322</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7332ddd05a884d9691a1f25b21ff8fb2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=HJUeh53usT79aMNEnNc%2BkB04IBw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/06a092b8f3c74bd4aecde942a2c01240~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gIZ44Gaw6eyff9ipkGht7QKigEY%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2202</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中国崛起势不可挡，你还在崇洋媚外吗?#中国 #认知  #趋势</t>
+          <t>一枪封神四十年 他一枪取得零的突破，神州大地封神无法超越，走到哪儿都是C位 #萧大业 #体育 #许海峰 #商业 #奥运</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7451961986214038793</t>
+          <t>https://www.douyin.com/video/7447101308827372838</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b5a894a1037d4012aee7bf0639fbfe8d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Lyl%2BL2Dm7fB7SXg8sFrIITGpMPA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/60ce0026c0b348b093e7b868e30ff1f6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=p6c%2BuQb6wkO%2FrTaP1t7UTbXAxUI%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>2349</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>短视频4.0时代来了，2025年抓住你将赚翻！#认知 #财富 #短视频</t>
+          <t>马斯克为何如此高效 过去100天马斯克干了八件大事，每一件事都是普通人终其一生也难完成的，他为何如此高效 #马斯克 #特斯拉 #商业 #萧大业 #高效</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7451875171440282918</t>
+          <t>https://www.douyin.com/video/7446728409889164553</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4f15fd20b13c48f481c49db83fbdf2a8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=w3LYH1z0gw8cSrlKaBi0EGPOtjA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/493a0c1522f34c7190159117e596152b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=R8%2BwpYbfqnXnU2w9b2J6MFY5epE%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3931</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>为什么00后一副摆烂的样子？#00后 #认知 #财富</t>
+          <t>他们的选择让人肃然起敬 人的一生中会面临无数选择，有些轻而易举，有些艰难困苦，旁人或许无法真正理解，但有些选择却令人肃然起敬。 #张大千 #人生 #萧大业 #商业 #选择</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7451597542313168179</t>
+          <t>https://www.douyin.com/video/7445980022126464266</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/bda03afd98ed4979b28fcc60eba32c3a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2FMjI9aBW5IMgzbiK5cOJ6VPLqCY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/686564597b714790a88868685e79bc1a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=aOrRl6Wz1e1C%2BLPO57%2BcCgOaHDE%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>抓住时代红利，普通人才能逆袭人生！#认知 #财富 #短视频</t>
+          <t>最贵画家，撩妹高手，死了都要谈恋爱 他当过土匪做过和尚，一生娶了四个老婆，公开知道的有六个情人，他是中国最贵的画家，有一年光是拍卖他的画作就拍了40亿 #萧大业 #张大千 #画 #民国大师 #商业</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7451595801962269962</t>
+          <t>https://www.douyin.com/video/7445269692580728122</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3577bf7272b844e1bff767ed11aa4c8d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ebQNFE73rBsi%2FER1z%2BFAVra2KV4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oAiz6zwpfACuBUBIAVbSRKIwSietXqUyzeiEEz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0nSvnGiVaksuwSt1yoHe6HCd%2Bno%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一分钟视频告诉你，房子还能不能买？#认知 #房地产 #商业</t>
+          <t>英伟达和神一样超越了微软超越了苹果，成为了全球最大市值的公司，曾经一天的涨幅就超过了一个阿里巴巴+一个百度+一个京东…
+#黄仁勋#英伟达#AI#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7451255083733372169</t>
+          <t>https://www.douyin.com/video/7444865614222511399</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oI7Q9CWenINAA3AvWBaFpLzEQzDDmlApOgf0kF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=XkMq%2FilouG06peNXzd3fYyA%2FbWI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6d8178611f7d40ad99fc0d6e4a61ee4e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pknXMNpTw4HDuiCeKy8jVffDrv8%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>615</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>《破地狱》这部电影真正想表达什么？ #破地狱</t>
+          <t>短剧 正在蓬勃发展又机会多多的短剧#萧大业 #商业 #短剧 #大话大话西游</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450918054243896602</t>
+          <t>https://www.douyin.com/video/7444470783654530364</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEQeH2EdYmN9WL18QUzGhAFD03CeA3RfLgJwIf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GRYrT5SPn%2FkPKkLt9Um8kndhOlY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o4FJYwEnUAf5E61CEicBq9JCe9gfQcIuALywID~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tsdard0PlgbvQzIBEGfVOdG5gAo%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>5991</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>冬至是一年里转运最好的一天 #冬至 #冬至安康</t>
+          <t>死亡不是终点，遗忘才是。琼瑶阿姨走了，但她已经以另一种方式活在了我们的心中。生如夏花之绚烂，死若秋叶之静美。琼瑶阿姨，一路走好。 #琼瑶#还珠格格#情深深雨蒙蒙#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450542310485462323</t>
+          <t>https://www.douyin.com/video/7444120886908603705</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e09cd70bd6b6449796b79cb69f8eaaf3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=L2EEeb49Jtm3RYlwiRrAJaCMSB0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oUA99wEweKAivi215qegypfvUoB1ECQIKBIzRO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=X3x4dd0%2B0t76yVw6UpTVfS4ZTaM%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>不结婚不生小孩，是年轻人太自私了吗？#年轻人 #结婚 #生育 #女性成长 #认知</t>
+          <t>只有用金钱支持你的人，才是最认可你的人。真心想帮你的人，从来没有那么多废话。 #金句#人生 #萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450533562354355493</t>
+          <t>https://www.douyin.com/video/7443761387253337394</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/682544e9541e47f4a9d56ddc5e20982c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=42xIw46LTVxznQC5r%2F9YN4zutw8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8e2b52b88498407f938f52d36a19b21b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Mw4WS2is9jxOG9TK808uR%2BLxZh8%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>中美博弈背后有巨大的商机！#中美 #人工智能 #商机 #商业思维 #认知</t>
+          <t>不肯剪辫子的大儒 生在南洋，学在西洋，婚在东洋，仕在北洋，教在北大”，他自号“东西南北人”。甘地称他是“最珍贵的中国人”，而他，其实并不是土生土长的中国人。 #大师 #辜鸿铭 #萧大业 #商业 #贵州珍酒</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450519111345442057</t>
+          <t>https://www.douyin.com/video/7443376361776942393</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4ce011471aa2464890cab7db05db208f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ztHdZNcaG5O%2Bs2MT%2BCjUn6xoCcc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/oYBMFw5iAB2nmAZEAAo3HI5vPLiAPz6ZhZ0QM~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FDW7kp05boEKxuDRvdVeU1yrwmA%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>如果世界被毁灭了，根源只会是人类自己！#人工智能 #认知 #思维 #商业 #觉醒</t>
+          <t>你见不得别人好，别人未必不好，但你肯定不好，因为你内心没有美好#擦边舞#直播#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450516208031403302</t>
+          <t>https://www.douyin.com/video/7443039375547469116</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/31ff42f21cef458990d173fdbdbc38d9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=lGnLyliI8Cujgw9zNiv1kjZ9IeU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o4eEATeIEAKcdLs4EgFo21Ah7wQqLUD2GTkeer~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ofiWxdURmofpNWvakgQnh8ZnXrA%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1.1万</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>傻姑娘别再犯傻了，左右你幸福的，绝对不是爱情！#爱情 #事业 #女性成长 #女性觉醒 #认知</t>
+          <t>难得的一首歌，不管怎么说，还是值得一听，周末愉快… #音乐#人生#任素汐#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7450119353640471834</t>
+          <t>https://www.douyin.com/video/7442633971038571833</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/a2a3dd7e012a499b94785419432925e3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=v2Hp%2B1itsKuF6p6kq8ZqcKhSh8w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/ooOMmEBAPAjhsc37AZYANPhn3AJMii0SIRBDG~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VDaorPyaTGexw0rv25QKMWx8NXo%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>7425</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>普通人到底该如何改变命运？#认知 #环境 #教育 #商业思维 #逆袭</t>
+          <t>马龙不仅乒乓球打的好，情商更高，感觉他好像无所不能，做啥都做的漂亮 #马龙#乒乓球#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7449746487057190195</t>
+          <t>https://www.douyin.com/video/7441919313340042537</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/508db01d330948cf873bbcf10f55637f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ctHZSYfmTO2EL9anU%2FBlqRMplgM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5c062ec0922b4068b248d2d0a99cf53b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=O2vLdh9hmokaqowysf7eLseyxWo%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>超级个体时代到来，如何抓住新媒体机会逆袭？#新媒体 #个人ip #超级个人 #创业 #认知</t>
+          <t>没有比他硬的硬汉 他是诺贝尔奖获得者，无数次打败死神，但到头来还是自己了结了自己。他宁愿有尊严的死，也不愿再做一个行尸走肉，他才是一个纯纯的硬汉 #海明威 #萧大业 #贵州珍酒 #硬汉 #商业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7449726347699637542</t>
+          <t>https://www.douyin.com/video/7441583159960980795</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/56cd2ffb15734169a005e537f982ff0c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=SD0whhzuHJ37dC8zx8Ovfctswzk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o8HdFDR3IAeWvRBAeE0Es3BDuEV9waFnnFCmgf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1VA2reL%2BOEG8qA%2BQrdrauZNZYGo%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2.7万</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>未来到底谁能干掉微信和抖音，马化腾的回答让我吓出一身冷汗！#微信 #抖音 #商业思维 #认知 #科技</t>
+          <t>不要因为睡懒觉而感到自责，因为你起来也创造不了什么价值，能从浪费时间中获得乐趣就不是浪费时间 #人生 #鸡汤#萧大业 #商业#财经</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7449368031131733275</t>
+          <t>https://www.douyin.com/video/7441181738610543932</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0c0b4827b91c475b9f3ad9e4371d6178~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=cQYOL%2B5YZ93Wv%2FZa2FFXM6hz5Lo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oEfeMLWJA2y7TGqxQ4YJ9WyetkIBiOS8gDCEIq~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=M2amXyrlQUg850yFZufHfRFR8to%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>婚姻是人生的选项，但不是必选项！#婚姻 #男人女人 #成长思维 #认知 #智慧人生</t>
+          <t>钟睒睒的反击，发出的是这一个群体早就想发出的声音 #农发山泉#钟睒睒#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7449295870312418569</t>
+          <t>https://www.douyin.com/video/7440047748524543251</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cd0d4e9016de4bb0b72460ee1a591b12~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Qoc4JNqx1ZVzbUmoRm12j5EvDD4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/401093fd8e5e46b4ae2af6365d8f14aa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=T4zfyiJfHyBF6XM6dJ%2BmhGFuIls%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>全网2亿粉丝，张琦为何不带货？#张琦 #商业教育 #老板思维 #认知 #天地人网</t>
+          <t>执掌四家世界五百强的大神 宁高宁绝对是中国企业家里面顶级的顶级，是我们改革开放全面发展怎么都绕不过去的大神 #宁高宁 #萧大业 #商业 #中粮集团 #华润</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7449012779341729064</t>
+          <t>https://www.douyin.com/video/7439314118953241914</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d15ce7bc2b414301b426e9501ef80ec8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=P%2BbNVdSXfRlFmyCj7wsHDPMCtS8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oEPBDf4lDTZcFLnDy7Eg3eIaeF4QNcBAqH2bfA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=v3tEvxzhInMJb0uXlvttU1zUpnk%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>为何你的门店赚不到钱？#星巴克 #门店 #实体店 #生意 #商业思维</t>
+          <t>继续使用年轻人，把血性踢出来，就是赢家 #国足#足球#世界杯#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447898352215215410</t>
+          <t>https://www.douyin.com/video/7438569687178349884</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9d7c80e333194946998a32d4e3228a35~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=H%2Fw5ukTcG7Bfc5j6JJ%2FmMnjCGSo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oMePjDEQIEwnF5OfaGFe7Qwx08udRAAJDCx9Ci~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kpTPeORmLVeEVkBsLkffJNn5BjI%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>看完这个视频，轻松掌握产品的定价权！#商业思维 #定价权 #创业 #产品创新 #认知</t>
+          <t>原来一切都是最好的安排…#人生 #选择#结婚#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447883218449157410</t>
+          <t>https://www.douyin.com/video/7438209549330386234</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/45f5157bb0cb4077af2d2e176a59c449~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fkTrCXoqbZlGL3KrF8JciPT8dNg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oUzO6FC9eDn5OkAQqwokAcGTIfsEA7EEePQodC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kMc9MUZgEyvvYGYPi79MLzb1iDw%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>李子柒为何能够高调复出，迅速爆火？#新媒体创业 #李子柒 #商业思维 #认知 #个人ip</t>
+          <t>你想要你的孩子成为什么人？你就得先成为什么人#马斯克#梅耶马斯克#教育#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447893959042436379</t>
+          <t>https://www.douyin.com/video/7437817538353974586</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/362631c476bc46038c4defd35be4e28e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=A%2FwmIg5UFUIRadEJl%2Fl7A%2FKBaDE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/ogwD6cwsXi87F3vzA6AlIbE4fdAITCEeBB9eni~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ivbploHkBQ6Z3vjo5hw0etGi9dY%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>为何我国大力扶持新能源产业？#新能源 #汽车 #商机 #创业思维 #趋势</t>
+          <t>马斯克的第一性原理到底是什么？ 神秘的第一性原理到底是什么？ #马斯克#特斯拉#电动汽车#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447880599525690633</t>
+          <t>https://www.douyin.com/video/7437468052557466937</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d6e6f5ec1d0f46c997177b48676cfc32~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=gfeeOn3Xl6%2FSOB054erDQbtxVKE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o05VBf46BEczizXA53iM5qEcmCeIB8Ww28eKhA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iXtptdpAa2O6Vh7ujWwOOsXW8%2Bc%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>超级ip的时代到来，我们每一个人都有机会！#个人ip #商业思维 #琼瑶 #认知 #新媒体创业</t>
+          <t>我们穷极一生究竟在追求什么 #人生 #生命#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447802956096752936</t>
+          <t>https://www.douyin.com/video/7437082397696396603</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7acee164db2147f7adb9ebc68864cf22~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hl%2B3n%2FiXoi3fxvCVz3QMjn5uBgg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oIMmeEFIBCzluC0rwifxAOCQbijjqzEA92Ve01~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jKjx2LJaRPmiF%2B2Ib2ULBIE9rFg%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>834</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>离婚率越来越高，做婚恋市场还有机会吗？#婚姻 #爱情 #商机 #商业思维 #认知</t>
+          <t>大众只看到了李子柒对网络流量的“统治力”，但很少有人看到为了这条时隔三年的视频，她所经历的困难和痛苦…#李子柒#日历#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447791957709032719</t>
+          <t>https://www.douyin.com/video/7436706449935387961</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a48c1df0897945f785ef477e836cb338~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EXqRfQm1f9Coa7poceen9YRUNEY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/ocRo5LC78GOzaLBmegGpAykdQe0rHaJIfbghPJ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iqZdYcxDhbo%2BWUeSVZZUwxDauA8%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>为什么你有钱还那么拼？#张琦 #赚钱 #女性成长 #认知 #财富</t>
+          <t>李子柒告诉这个世界，除了商业和流量，内容还有如此强大的力量，可以穿越周期，可以抵抗遗忘，可以不被资本、商业、流量绑架和左右，可以击穿圈层… #李子柒#网红#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447554211811773748</t>
+          <t>https://www.douyin.com/video/7436329728631409980</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8e92b341811e48d5a0211a8c80298c90~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ahdX2HUywbSmR4O550m%2Bnkp4roE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/okHEN9MCPiZyBDi9mGAkoIoMJhWKXLPqoAzGz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=mqVQ61fmn%2F97sw82z6VuW3XRN%2BE%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>摆脱焦虑最好的办法是什么？#焦虑 #成长思维 #人生感悟 #认知 #张琦</t>
+          <t>好好说话，是一个家庭最好的风水 #人生 #人性#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447548472393272613</t>
+          <t>https://www.douyin.com/video/7435957845285162298</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b1d1a87106574cf4bd997f2fd2866c12~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3HlonaneSXgUs187tASLGChsTlk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oscxYT38lXvPBzRiHGEdRjM1BCIZhi9UgA1AE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=cX6ceZ4eOVl0t4xPIeuanQQDTIQ%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>父母到底为什么会催婚？#催婚 #父母 #认知 #成长 #思维</t>
+          <t>我来这个世界，不是为了繁衍后代。而是来看花怎么开，水怎么流。太阳怎么升起，夕阳何时落下。我活在世上，无非想要明白些道理，遇见些有趣的事#郑州骑行#开封骑行#萧大业#商业#大学生</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7447076562924588303</t>
+          <t>https://www.douyin.com/video/7435227136299961611</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/75dd9eb7265543c482cbe271c6e5c0d2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=sdsulUZkPglpKkULIh86bxcgbqQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/74ba145029d7496ba915009f4375817c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fmbAVxpwl5E6Cpp9x%2BFBZpgWfIc%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025年万亿新风口，低空经济和我们有什么关系？#低空经济 #商业 #认知 #财富 #机会</t>
+          <t>如果有来生，我绝对走自己的路 其实人做什么事都是心甘情愿的，只要心甘情愿他就一定是自由的，任何的付出感和责任感，其实都是身心的不自由感，生命的束缚感，生活的沉重感… #张赞英 #许知远 #萧大业 #十三邀 #商业</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7446765192018529562</t>
+          <t>https://www.douyin.com/video/7434856692841598268</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9f1d72c9a8bc435bbf5d12c39186410c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=4FIdhPhb%2BptVde9M9OD87TUn%2BvQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/o8AmJBaO8E9EB7YQpmbfCF1WRDfI1eIokB0sWg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=e9kbyGRXMTEocfwSvVipjIj5L40%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>最长久的关系，一定不是爱情！#琼瑶 #爱情 #女性 #成长思维 #认知</t>
+          <t>仪式感就是使某一天与其他的日子不同，使某一时刻与其他时刻不同 #日历#仪式感#商业#萧大业#十点读书</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7446425085570764084</t>
+          <t>https://www.douyin.com/video/7434509621760363834</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b6e34fd8ca8c40ab82a0ddf4d4e8a689~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=MLFcnOobu5Tw9v%2FhCpwpdyjtZVE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oMAAsFsd5LfyDrn09fKCKMAkweECEEqIGnj9EG~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0lNV8lWkYxwaJsIRYUA4yh5yBpM%3D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>这个时代，我们尊重科学家，更要尊重每一位企业家！#企业家 #商业思维 #医改 #政策 #认知</t>
+          <t>钢铁侠马斯克前世今生 只有疯狂到认为自己可以改变世界的人才能改变世界。#马斯克#特斯拉#梦想#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7446413222044831011</t>
+          <t>https://www.douyin.com/video/7433734081516473657</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1323d894919d4f3290c8ce80881fcf45~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=iBxF5kwExl16ywuUiW6068rvK%2Fk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/oceOet7pBRGUfTiIr2LsnI95J6oNQgCC9aD8TA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=oBOrIxnPfelbPLDBJX%2F03qunoCQ%3D</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6849</t>
+          <t>842</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中医和西医哪个更厉害？#中医 #西医 #认知 #思维 #张琦</t>
+          <t>明天中午投票结束，这个24小时真正的生死时速。今天一开始就陷入了焦灼…#特朗普#哈里斯#大选#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7446027159677832488</t>
+          <t>https://www.douyin.com/video/7433396249514085643</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a11d21eaac1045078298204bf222cb11~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=V%2FaN29JBGO6FNZuK7LPtNEoEZ9k%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oM8A0oB8il0aluocpev0AB5AFxGEICBfgzFkTi~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PbQ1VX%2B5%2BLR3oC%2BpFZbirgL2PLw%3D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1.7万</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>活得精彩，走的潇洒！有感于琼瑶离世#琼瑶 #琼瑶离世 #人物 #启发 #认知</t>
+          <t>这次大选将成为史上最昂贵的一次 #大选#川普#哈里斯#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7445641003958095138</t>
+          <t>https://www.douyin.com/video/7433007787002613003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7c3c7133c39540da8b9e3d255e62e274~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Kvv%2BMaG0iC9cCBct3jIHuzo0ob4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYOBBTVEfgAr3SQj51ZGd8EfcAQvbCMSOQf76X~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=U27lrEW6EfM6REzM9oMfVc7%2BSvU%3D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2799</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>悲催的中年人，背后蕴藏着巨大商机！#中年人 #商机 #温泉酒店 #商业思维 #老板</t>
+          <t>对岸大选正在殊死搏斗，进入了白热化争夺，毫不夸张地地说这是一场你死我活的生死搏杀… 哈里斯#萧大业#马斯克#特朗普#拜登</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7445628603544440116</t>
+          <t>https://www.douyin.com/video/7432634129746824487</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/78198e43fa7e4f36a01415ac9941f2d9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=shliWjAutVky5neYEW1qSWcFOCU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUyDFBftgAl7X4VmEBJWEfLTCBJInIAPRA79gr~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qn7AHbbPPDrxauiI5c%2BI3emqGbo%3D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>学会这套商业架构，一年增长3倍不是问题！#大健康 #商业思维 #创业 #老板 #认知</t>
+          <t>婚姻的本质就是一起聊，一起吃，一起睡… #婚姻#爱情#家庭#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7445591400588070170</t>
+          <t>https://www.douyin.com/video/7431897483933928740</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/903162ca513e4955a3ebf7f4a95d00e7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=o3l7kQH5zfEOeDgs1aKLPW8d1Pk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osnDCpjphBFE2AF9fAQIl3PB3IAOgQfQocZDEz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wwZoXSAtqbbtLQkzWvHAMcqBiN4%3D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>686</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>人性善恶的真相，背后都是利益！#人性 #善恶 #利益 #认知 #成长思维</t>
+          <t>到底什么才是孝顺？听话就是孝顺？给爸妈洗脚就是孝顺？ #人生 #尊重#孝顺#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7445301597296397577</t>
+          <t>https://www.douyin.com/video/7431482882276724006</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o4MQFgwBTIEC9anikPZBbjAPiZBKA12mIgEom~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=9gMr5hjMEunp86u9nxpzXASWzNE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oc6B0xOlA770EfRBF9AYlEIDhAQEQurCk4fSle~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=aA3O%2Bo9GfnrPHvsQcP6VPRbJh%2BU%3D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6750</t>
+          <t>543</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>中年人要守住钱包，千万别掉进消费主义陷阱！ #中年人 #消费 #思维 #认知 #张琦</t>
+          <t>生命的意义到底是什么？ 生命就是一团欲望，欲望得到了满足就会无聊，欲望得不到满足就会痛苦。#人生#生命#成长#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7445248105735261490</t>
+          <t>https://www.douyin.com/video/7431162537489583410</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/12c60ce0543b477e8415f69f4f186e43~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=JYzsFoMTxd2bo%2FQ3E3TUdtuTq4M%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/o0fAprnQBLSDnBclgNCgMfESFAA9BBIm5w3FWI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jQR7RPcs%2FkRfFvQBnfL7f25OhgU%3D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6175</t>
+          <t>639</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9年干到世界500强，小米凭什么这么牛？#小米 #雷军 #生态链 #创业 #商业思维</t>
+          <t>局外人 其实人活在这世上，谁都不过是别人世界里的局外人。 #人性#加缪#局外人#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444908858612403482</t>
+          <t>https://www.douyin.com/video/7430811693602589964</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/30947cf6d422468cbf0e5e5338676922~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=L43Xg1hhxp6pftQTgYQD60NCk2U%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQKF8FxsOxBeAgmfCsLIAWGbBPA74pDgQHeJEx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=OHWemUEin1ObF3cZqJVf87An224%3D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>人生最大的悲哀是活成了杠精！#人生 #认知 #杠精 #成长思维 #张琦</t>
+          <t>一个人按自己的方式生活，那不叫自私；让别人按照自己的方式生活才叫自私…#自私#生命#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444906073087053090</t>
+          <t>https://www.douyin.com/video/7430434121022852378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/3d5d067882cc4f08954342a4f8bb56b9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Z67a35QvNZfaQR1qy4gPiF2071o%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ocD88QfQBDMjnFNASf7BAYCaEHQAaIJg9q45jP~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Tai1xUjigSD5E9Q2D%2BI%2FYmh%2BrAY%3D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>7924</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>人生做到这三点，做好了一生圆满!#人生 #成长思维 #认知 #真实 #自由</t>
+          <t>一生中最重要的 人的一生中，到底什么最重要？看完这个视频我豁然开朗泪眼朦胧… #沙白#人生 #生命#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444537362119478543</t>
+          <t>https://www.douyin.com/video/7429657885619129612</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8c5de083c58f4cb5a4db0073dc61f859~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1ryieL%2FVd%2BAEp06%2FqB7THlgmK9s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/o0CaAc3jGiAAgAbAEziB1of4IAXxglNMACbC1e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6UHAojCduUQTPqs9oOcRP7yD70Q%3D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.1万</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>孩子成绩差不重要，父母必须明白这一点！#家庭教育 #成绩 #认知 #人工智能 #成长思维</t>
+          <t>死亡不是终点，遗忘才是…#沙白#人生 #生命#萧大业#商业</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444218692839165193</t>
+          <t>https://www.douyin.com/video/7428902390180498738</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b3561abd3e2645658577e30a6987b538~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=MCa2HRNfjTBFVzy2zecpPvdd2tQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAaYeGGbzECAAAA1wBjiE8GiIZBB5yAIggfi32~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uc%2ByrtKw6Vo7rAk0jPBEqQsoCVw%3D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2.6万</t>
+          <t>5195</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>不同年代的恋爱观，为什么只有00后是最正常的？#00后 #80后 #爱情 #女性成长 #认知思维</t>
+          <t>从黄圣依和杨子看尊重 夫妻之间，相互尊重比爱更重要#黄圣依#杨子#婚姻#PUA#商业</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444213594973080869</t>
+          <t>https://www.douyin.com/video/7428537552648408356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5fccdf94517d474994e2b8dfa5f628b9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=CUsdmMG4dDiF%2BGnnEJ26UlIl93A%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocOoptIQIBAO9mLeH7LEu6oL4z7BeBAfGCu7Ey~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gdfXa7B7jnrfDGtqtSMcbqkiTJU%3D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>为什么单着的都是大龄剩女？#女性成长 #认知 #婚姻 #大龄女性</t>
+          <t>他们会离婚吗？那得看还能不能一起吃，一起睡，一起聊。这三件事若一条都没有，那完全可以分开了，不然图什么呢 #黄圣依#扬子#婚姻#PUA#商业</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7444196053936508195</t>
+          <t>https://www.douyin.com/video/7428157512320290084</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a47c24cbbbb54011a547977c0e939f21~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ntbSOhoSnvBNcvG8EtYWScpNU44%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osmstOYTI1TDALigkDEIPABOQXgLCIGyBQee7f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fDBDF3V4piaEzsDOzTVi7HYuA5M%3D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大数据时代，算法比你更懂你自己！#大数据 #财富 #商业 #恋爱 #认知</t>
+          <t>能征服人心的永远不是小聪明，而是厚道；能感动人心的永远不是语言，而是行动；能始终如一的，永远不是伪装，而是真诚。#何炅#湖南卫视#金鹰奖#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7443811730796367139</t>
+          <t>https://www.douyin.com/video/7427801023797792051</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/26be43bc202c4ee0b7503bf958c379c9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yLn07oTZ%2B5z1dz%2FXpXfdpJEA2is%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osiEICAfmbhEupAep2izACiy26dBxogAAy8tUB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Fs%2BUalQ2naXRmR4vKbLeM0Icik4%3D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7940</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>你还相信纯纯的爱情吗？#爱情 #利益 #认知 #成长思维 #张琦</t>
+          <t>打不垮的硬汉褚时健 看清一个人，不要看他得意时做了什么，而要看失意时做了什么#褚时健#褚橙#大业珍言#红塔山#哀牢山</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7442974917110418738</t>
+          <t>https://www.douyin.com/video/7427375044348726554</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9bdfdd9985cf4e3ead34363b8573b6c7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kYCTTS3IipVSCa1g9%2FRhwaTLg0Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQIWfmDlIFAXQiBEmBECqrA3A91vf92mn0JAg3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ll5vJcxzukbvnFsAFiNs8u3pNpY%3D</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.0万</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>李子柒高调复出为何依旧是顶流？#李子柒 #流量 #商业 #认知 #张琦</t>
+          <t>好男人的核心特征 十条好男人的核心特征，看看你占了几条？#男人#女人#亲密关系#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7442733610169371954</t>
+          <t>https://www.douyin.com/video/7427032516965518611</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d26b132966184949b85882795d4335f6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PmjnsDK7%2BWt6%2FN0x0PzJFCk24E8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ec855fa881b74f30baaaea9f54979bda~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=73%2F3LI1YXAI1S3g9%2FOLfn1rwtA4%3D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5万</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中国制造到底有多牛？#中国制造 #商业思维 #认知 #企业家 #张琦</t>
+          <t>逆势增长的企业靠什么 生意难做钱难赚，企业逆势增长靠什么？#萧大业 #商业 #经济</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7442696404096617765</t>
+          <t>https://www.douyin.com/video/7426666708150095123</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/64308b144b2a4593ba753a834312abe4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Gb9Yk3bmQGp6urgPE5r91w6kSZQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okulIsQiZPWPFBDPk7RhsAIDQ6xBEgDnA0isg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qS9oI2R0wicrSn4BT%2FfGAkt%2BWP4%3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>7970</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>东升西降是势不可挡的，世界将重新洗牌！#中国崛起 #商业思维 #认知 #经济 #张琦</t>
+          <t>女人有没有福相是可以看出来的#女人#男人#福气#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7442282643313462568</t>
+          <t>https://www.douyin.com/video/7426294084345646387</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/78f63cec238141858c52277144355cd4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=38YrSULDYPjq9Bde1CPxZcn8oH0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQCTAfJHGXwfqBvHhOQMDz84AsIhA3vKBEe7Z7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=cGZz%2FK3nmjJYcVzEeoA0O3lh9u8%3D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>年轻人真的很不容易，不要说他们躺平#00后 #找工作 #认知 #努力 #就业</t>
+          <t>睡地板的工作狂马斯克 马斯克为什么可以执着于梦想不知疲倦的工作？答案就在这里#马斯克#特斯拉#SpaceX#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7441588810967698726</t>
+          <t>https://www.douyin.com/video/7425939427123268900</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6c4f05577d594bd0ba25760cfef2efc6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZoBG9O%2BDZ3umojeETTt08PHsoTo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocOPIIAwVD9gk8YibPyZmQAQBJNcB4i0vwEq8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8LLUZ7tG2LTxtlUBAQq21tYEURA%3D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9693</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>从搬运工到千亿老板，为何他能赚到钱？#商业思维 #商机 #认知 #老板 #张琦</t>
+          <t>讲的真有道理，快来看看吧@微信创作者 #金句#人生#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7441223714735181091</t>
+          <t>https://www.douyin.com/video/7425592665393073447</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f1a28ca4103b4ffdaed0f5d52ce1756b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=kNBc8qvVwQ8LN50VUpynIaj9RtU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0e7IBHBUGRnoVIafGCfQA2AACLnBOAgGVGESI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Vjzt1OslyR0G6pKvJBmE64hawOE%3D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2.0万</t>
+          <t>4754</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>你赚不到钱的根本原因，是不懂来钱底层逻辑！#赚钱 #商业思维 #认知 #老板 #张琦</t>
+          <t>马斯克永远拥有一流的执行力和落地能力，能把灵光乍现在最短的时间内化虚为实 #马斯克#space X#特斯拉#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7441168082527210786</t>
+          <t>https://www.douyin.com/video/7425195687177882906</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d3eaa1efd4cc4cfcb80fc8f94599a809~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=AtDrg1WcurCZqeVTbcqF3cygQJc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osCBBFtErQAyPLWjjsmfLfC62AE2xCDYOIE7eF~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Z7Vf4GlPDuW%2FtZXo9lv2GVPD0kQ%3D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2.4万</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>房子还能不能买，这3点一定要注意#买房 #房子 #房地产 #认知 #商业思维</t>
+          <t>清华三位男神大师为何终身不娶 在清华三位终身未娶的男神教授眼中，爱情和婚姻都是神圣的，不容有一丝一毫的亵渎，他们绝不将就#陈岱孙#叶企孙#金岳霖#清华#商业</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7440845325704711450</t>
+          <t>https://www.douyin.com/video/7424864966668274983</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1998e7bfbf684635b22716e931fe1d1d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=oPqXrFdOSnYiZ%2F7x4cLbfxtFRZY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYA6AA1zCi7BxeTIVVKfBiahkBu9jTEymHTS2g~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=OL1G73tJ92IjpIxAQQ7l5cAF7zQ%3D</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>聪明是一种能力，自信是一种天分#自信 #马斯克 #认知 #张琦 #思维</t>
+          <t>有的人就是胎里坏，和教育无关和基因有关，看了这个连自己孩子都要卖掉的恶魔你会重新思考人性 #余华英#拐卖儿童#杨妞花#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7440485953002655028</t>
+          <t>https://www.douyin.com/video/7424507290218171657</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/82e0c2eb2c7443d98064981cffc3d1d0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=SkZQbgQyKT87m7VUfqFWyWxTD6w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owEAJizRJBIaA7BMIfwsOCBgiyJOphxTBkLAeh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=sAGzJlwoCzBqKhX6pxjlCcPxY9A%3D</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>生活中好好说话，能打败99%的人#说话 #沟通 #婚姻 #认知 #表达</t>
+          <t>载入史册的一天:特斯拉发布无方向盘、无踏板新车 马斯克在很久以前就有一个秘密宏图，现在正一步一步地实现他#特斯拉#马斯克#商业#Cybercab#萧大业</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7440136725764033827</t>
+          <t>https://www.douyin.com/video/7424089080687873307</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0df721c20b654964aeedc696914e462b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yqJ7InDs52kN1jrRe33Fx1EnjXo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooKAelnQHEKDoBhqgrCc6fEMFAA9wCBtPIvSRI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lrc66Qq4rwjBEwe9SGqidrrPLLk%3D</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>985 211出来的，不一定比家政阿姨收入高#收入 #毕业 #现状 #商业思维 #家政</t>
+          <t>股神的炒G心得 好好看看股神的炒G心得
+#股市#经济#财经#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7439661989422533915</t>
+          <t>https://www.douyin.com/video/7423736314165497124</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/60b5c951100e467ca199450176a0a442~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2F72IWHpFoQekW%2B2%2F61veqrKiOyU%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oEbbBeeQGBAOLnGBdGIaNNEODCEI3HCAeE7lGA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=q6gmQDzR3aEq9Xh99ifItn3ivDY%3D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>提升表达能力，开启精彩人生！#提升表达 #提升口才 #自我介绍 #上台发言 #公众发言</t>
+          <t>十句醒世名言，你最喜欢哪一句 #名言#哲学#商业#萧大业#财经</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7439379540616563977</t>
+          <t>https://www.douyin.com/video/7423384156689779980</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1d98e3639f0b4f959c183f25d1a1bf25~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=5jl0H2MqRRdHKf9Z90ywkNl%2Fcak%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/oQJAlfpF0g2eBUAIA5yiAOCCKAgiEyngzNRMAA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4zxIjsGNoVhYMOQYOM36HA6%2FKGo%3D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>四川文旅杀疯了，想接他的事业运#四川文旅 #事业 #商业思维 #好运 #四川</t>
+          <t>你会离开小地方吗？观点不同别喷哈 #人生#商业#萧大业#财经</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7439326767384464678</t>
+          <t>https://www.douyin.com/video/7423015582494182683</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cde0c7bf48bc49c28898d0b71bb9fa65~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3%2BtgdSOWNGVUALwThiG01lD9ths%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYf9IAkiCi5yY39H1UBeQPksgBFrAnA9AdDC3E~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6Z1nlAADmnGG8G5%2FBbL3qzNMWp8%3D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>9884</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>人生最重要的3件大事#健康 #心情 #人生 #睡眠 #健康管理</t>
+          <t>国庆长假，高歌一曲，祝各位节日快乐 #国庆#祖国#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438974754976992521</t>
+          <t>https://www.douyin.com/video/7422619505748217125</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7e005437199349b5a96e5182f4235411~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PC2hPx0TAZkFCrzfhxyXd6hJQuU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooByAcXgjiY09ATAEziB6Sf7IidPghujACCPoe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZihL%2BF25zL87XcSekALlEpt9zXo%3D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>做管理千万不要和员工拼能力#管理能力 #管理层 #领导力 #顶层架构 #老板</t>
+          <t>AI教母李飞飞 有人说，如果没有她，人工智能的发展可能会晚一二十年，她就是AI的关键。#李飞飞#AI#人工智能#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438932602163121446</t>
+          <t>https://www.douyin.com/video/7422285102761200908</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c28117cf4f05442280cdf2272f4ec26c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qPZeA06punLn6vOq%2F17IN44BP9I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4EGEeaeIw0EgQLAOTtAyQoePFu7CvBABQBSrL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pnX%2BMbus9Xpihd%2Bqn3d6YEpjtTE%3D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>刘晓庆:70岁正是谈恋爱的年纪#大女主 #女性成长 #情绪共鸣 #营销思维 #刘晓庆</t>
+          <t>电影《志愿军》热映，但即使看了电影可能也搞不清楚志愿军战胜敌人到底靠什么？ #志愿军#抗美援朝#萧大业#智慧</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438576627489066266</t>
+          <t>https://www.douyin.com/video/7421898808348511507</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8f68b74375c7490585a8bb02587d7f7c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yKB%2BYN0WhnIZJwyo%2FJPJdHbXtYw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUWKFea8GCfbLdvDHfI48SQbfEIgyA2ALK2LLA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=sxRVjszyq1L0msBD4xlhVfSJpDs%3D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>680</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>高情商会说话，让人好感度倍增#高情商 #会说话 #表达 #口才 #人际交往</t>
+          <t>你是哪个时代生人？感觉怎么样？ #60后#命运#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438514710154054963</t>
+          <t>https://www.douyin.com/video/7421515247116176703</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2651e5b81e014eca8c7e774dc455ee1b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=axxBmLjZeS3iW0Pi7G%2BZZE0kvcA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMIeQCBk7hhfAVDNVFHNfgtk0S6BREbAE2oNCO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HVdDq7ytLXdPjukot1wY3m1yXfI%3D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>9631</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>爱是这个世界上最贵的#爱 #认知 #情感共鸣 #张琦 #婚姻</t>
+          <t>下辈子，无论爱与不爱，都不会再见了。#人生 #书信#商业#萧大业#情感</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438273821909601586</t>
+          <t>https://www.douyin.com/video/7421133502034349353</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/dbd009ec988c449785230d5360929716~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nV3TmNzzrFHFpmz2xzhId7ojkMs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAK97So1NEEdBIBxKCfFJnlEIeDBZnA50AfPat~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=joWEK7BYTeXZllproAynV79eazg%3D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>不懂好内容的结构，永远赢不了#新媒体 #好内容 #商业思维 #个人ip #超级个体</t>
+          <t>心中的爱一定要表达出来… #爱#狗狗#表达#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7438253856296881459</t>
+          <t>https://www.douyin.com/video/7420778033239412022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0efd639e83e444c4b13e91ad826d16c1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=g3%2BdsV%2FNhgp73YXB8m5N4rAHRZ0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIv7DmZ1sNgzPIQBIvD6Ma5AgiVAvBliIEih5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=j3%2FWbq0Vf2svJYCzuotZQvozhkc%3D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>不要害怕焦虑，它能让你变得更好#焦虑 #心态 #智慧人生 #情感共鸣 #治愈</t>
+          <t>国庆是爸爸的生日，虽然他已经离开我二年了，但我时常想起他仿佛从未离开，我甚至能感觉到他在暗地保佑我 #国庆#父亲#爸爸#萧大业#家庭</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437911103100685619</t>
+          <t>https://www.douyin.com/video/7420004540923071744</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5a6863a8fc7045c08d357c3b8390d3d6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=CQUqdbZ%2BYqP7f2HE%2FBeBo4U3QWE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIyAHnifqEB18wAAM9Sgf3iqm5Ia9jlAD6uJJB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=R0cA7taTbk%2FfAvfl%2FGcUbqh0sL0%3D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>短视频新时代 ，到底如何抓住机会？ #老板 #企业 #商业思维 #新媒体 #机会</t>
+          <t>相识6天闪婚，相守73年共赴黄泉 他们相识6天闪婚，相恋了73年之后同时一起离开这个世界，他们告诉世界，执子之手，与子偕老，死生契阔，与子成说从来就不是说说而已#爱情#生死恋#商业#萧大业#安乐</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437881298305174810</t>
+          <t>https://www.douyin.com/video/7419649382351457599</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/da461f14f7874aabbf991464a9accb34~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=MYKjMyAjLWuvTcR44nGzTXpe3rU%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ogRdT3aI8XII7H9NAfDQ743LwefNmqBEBGqCAZ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=45NN7WjVuNpXMiH7ehNxYja2tJ8%3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>为何化妆品代言现在都是小鲜肉？#经济 #商业思维 #创业 #姐姐 #生意</t>
+          <t>一个普通到大学都没考上的上海小赤佬，10年间居然变成了日赚1400万美金的华裔第一大毒枭…#墨西哥#禁毒 #黄赌毒 #毒枭 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437518006537768219</t>
+          <t>https://www.douyin.com/video/7418912295822118185</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/55c1535e3c134bc7a9fdaed1713c3141~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=iWniAmKpygivJSZmd42wAsdqHNA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oY9AsBEUYpDe9UgmVYBtFG1AfpCDjmQARNIVN5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9WsZDOCTwQno0Ezj%2FTPDQgqz9jo%3D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>中年女人最佳活法，都在这3点#口才 #女性成长表达 #女性成长 #个人提升 #中年女人</t>
+          <t>他没读过大学，只是个高中毕业的牙医，但他自学成才写出了当代中国最伟大的作品之一。 #余华#活着#商业#萧大业#文学</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437385833906195722</t>
+          <t>https://www.douyin.com/video/7418547085743639820</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2e92df182ea341e48eac56a6b0aa136c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=g3mX1nnrpe4BUaQlOsoCQhAw03M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owefJApfe3CNQAI68pVLQHUGIfLUngsnONQAHE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gQiKOZbt4NIBWUpDLwDla08v0Y0%3D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>幸不幸福你自己说了算！#催婚 #亲子关系 #情感共鸣 #认知 #幸福</t>
+          <t>能折磨你的从来都不是别人的绝情，而是你心中的幻想和期待#人生 #成长#萧大业</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437154570209430793</t>
+          <t>https://www.douyin.com/video/7418183024426192147</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cb93a9233571482587f971641f6e7192~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=MAKLQPPGDs4HxxHUeC6KCPJ5ejs%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ooyXg8DBUImUFv34vCfB9PKSie46rqAEAEAKxE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xkUZ9mI%2F8E72X0V%2FrF6JgPahhag%3D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>发型师晓华爆火，普通人可以抓住新媒体#新媒体 #张琦 #营销 #超级IP #超级个体</t>
+          <t>为什么日本人租了20年的地要让它长满杂草荒废五年#短视#商业#财经#萧大业#农业</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7437103494647024931</t>
+          <t>https://www.douyin.com/video/7417805810048240915</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d9c754ec19e24a6e86ee78a92e488e3b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=rG7fM4KZYhQTZIj06XKpTtLrin4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQ3bICEDRHfAPxvDrmViAj6QjcFfK9A8sdB4Ig~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iMVIzS7ON%2BrscV4ZS0IaimQlhxQ%3D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>任何人跟你讲捷径都不要相信#人生 #智慧 #商业思维 #捷径 #认知</t>
+          <t>人生上半场拼的是名利，下半场比的是谁能吃，谁能玩，谁能快乐，谁还活着。从今往后的每一天都是为自己而活的一天… #养老#商业#财经#萧大业#人生</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7436798298595314984</t>
+          <t>https://www.douyin.com/video/7417459914697608511</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/37cd116d75a141ee858ee37fe8d07758~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=vPh%2BBwB2Z%2FfHF0eBMFETDayUFTM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oYCleSv9CEkTAHgAimAg25B9iFfAACIADI8wAw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=H6mDmWLBqnGWWmZz6nYFxIl7uDM%3D</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1.3万</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>嘴巴笨情商低，赶紧做这6件事！ #嘴笨 #高情商 #提升口才 #发言 #工作汇报</t>
+          <t>他是我读书几十年迄今为止看到的最完美的华人，没有之一，我拿着放大镜也没有找到他的短板#大师#顾毓琇#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7436698439108398362</t>
+          <t>https://www.douyin.com/video/7415950202886016310</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/86537b0f9b084369aa626f6f59e71690~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ngUJD1%2BbgZ554DaCnXP8M9KcPc0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osOQBoyMILAQV1GAg78GEHoMXqf23ENqeBdeCv~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jenLdVDxMYvO4unu2JXkKHp48W0%3D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2.9万</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>出走三年李子柒归来，为何仍是顶流 #李子柒更新了  #商业思维 #新媒体 #治愈 #超级个体</t>
+          <t>冲进战场的战士就像柴火被扔进了大熔炉里，填进去就灰飞烟灭了。但他们依然前赴后继誓死如归#淞沪会战 #抗战 #918 #上海#萧大业</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7436420085033504026</t>
+          <t>https://www.douyin.com/video/7415589504687443240</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/30d69c9cb3174e5a827d205bbd77dce9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=QZOhXbq9E0Dku0xLHoOUjTwuoxY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4dPxEBw5II4aAQLz7u3FAViBu7lZAd2iF1Pp~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uTiIQUXtOA0dxRxDogCRuboT2HA%3D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>掌握表达3要素，做超级表达者#表达 #高情商说话技巧 #演讲 #会说话 #提升口才</t>
+          <t>中秋溯源 我们是谁？我们从哪里来？我们为什么生生不息？为什么我们喜欢整齐划一？#中秋#这里是中国#商业#文化#萧大业</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7436394171801341236</t>
+          <t>https://www.douyin.com/video/7415215678094871849</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/960f4a8f08b740c3ad5d89e19a10295b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2Ff0PGkrgXJou0ixiLmQcTNAil6M%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIACswIOgiI2zrmoWZBRIQPjGPwuBgJoAiOE4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Uf7T%2FlKQMjgMCrfGZhMeGbCdo8Y%3D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>你不要成为别人，你要成为你自己#认知 #强者思维 #个人成长 #张琦 #缺点</t>
+          <t>九句醒世名言，听完让你茅塞顿开#金句#商业#财经#稻盛和夫#萧大业</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7436031443517721856</t>
+          <t>https://www.douyin.com/video/7414841953285590326</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9cda89fb365c4a50958ec6cdb1ae900e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=AvDc41hIFHpy4U%2BbH6ETQI3ldeA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oE4AJfsmogH9D1PIBfhEAKBCzA5FEc4JmM8LRn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9x9SIwuuvwLa1TFlKeo6j0K95us%3D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>761</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>超级个体时代，谁有影响力谁赚钱！#新媒体 #超级个体 #影响力 #创业 #商业</t>
+          <t>他们都有着坚韧不拔的精神气质和不屈的风骨… #西南联大#大师#财经#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7435999703021423907</t>
+          <t>https://www.douyin.com/video/7414371569616604435</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/b1f8c0c05cff4b3688514f25fb661764~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=XRIuLhsFKCmvNdwq87B8NSe3hA8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o47tPpy5jBdgYAL00wWlv7EBiAuiZIIaQIUnS~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=T8V249AFkF8lr46tRyX3cMbgCVg%3D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5602</t>
+          <t>962</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>一人带火一座城，李晓华为什么火了？#发型师晓华 #文旅 #商业思维 #创业 #新媒体</t>
+          <t>成年人最快乐的事情就是还拥有“被讨厌的勇气”和“做自己的底气” #奥运会#全红婵#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7435681396510690594</t>
+          <t>https://www.douyin.com/video/7413729861006626059</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/050037f3b6ab4baaa1105d9768c07dc5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YPVkRP%2FMpcOILXgD2p8b7sAwELI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ow8AiA5xtCB99EImL4FfABgqg3WFuDED9XDeAR~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=l9Oy3Sr4HGwg9ikpGv%2Fz3y1iFHw%3D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>别再因为嘴笨，错失了很多机会#嘴笨 #提升口才 #表达 #高情商 #会说话</t>
+          <t>谁也无法预测自己到了命悬一线的时候会有怎样的遭遇，但尽量在自己能好好呼吸空气、能正常吃好吃的饭菜、能照常走路跑跳的时候，好好活着#生命#薄世宁#萧大业#商业#财经</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7435667605853048064</t>
+          <t>https://www.douyin.com/video/7413355477595098409</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f6d1a676f21444e9b17b90b0c955ab5f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ceqZD4CeoG18%2BLqn5NnVtlmNL7Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQHgXyhRAkcAYoCm94RBAe9r5EIxEBFhMXM4fD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fSaWWH9lJwN8XPe%2FmPKF%2FslCspM%3D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>8 个瑞士卷事件，背后的婚姻启示#婚姻 #家庭 #情感共鸣 #女性成长 #认知</t>
+          <t>一位日本导演导的纪录片从侧面让我们了解了中国足球残酷的现实真相…#国足#足球#商业#财经#萧大业</t>
         </is>
       </c>
     </row>
